--- a/Game Report/Game Design Flowchart.xlsx
+++ b/Game Report/Game Design Flowchart.xlsx
@@ -206,14 +206,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>86510</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -222,10 +222,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3030682" y="2575461"/>
-          <a:ext cx="18634365" cy="32026266"/>
+          <a:off x="3048000" y="685800"/>
+          <a:ext cx="17732086" cy="45863660"/>
           <a:chOff x="3061607" y="2694214"/>
-          <a:chExt cx="18805074" cy="33555215"/>
+          <a:chExt cx="18805074" cy="41182707"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -238,8 +238,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000">
-            <a:off x="10686359" y="17090495"/>
-            <a:ext cx="650938" cy="1588"/>
+            <a:off x="10937156" y="17305991"/>
+            <a:ext cx="507262" cy="1"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -271,9 +271,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="3061607" y="2694214"/>
-            <a:ext cx="18805074" cy="33555215"/>
+            <a:ext cx="18805074" cy="41182707"/>
             <a:chOff x="3061607" y="2694214"/>
-            <a:chExt cx="18805074" cy="33555215"/>
+            <a:chExt cx="18805074" cy="41182707"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
@@ -286,8 +286,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm rot="5400000">
-              <a:off x="10848541" y="8980714"/>
-              <a:ext cx="326573" cy="1588"/>
+              <a:off x="10937156" y="9513992"/>
+              <a:ext cx="507262" cy="1"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -319,9 +319,9 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="3061607" y="2694214"/>
-              <a:ext cx="18805074" cy="33555215"/>
+              <a:ext cx="18805074" cy="41182707"/>
               <a:chOff x="4140994" y="508907"/>
-              <a:chExt cx="7928542" cy="26066169"/>
+              <a:chExt cx="7928542" cy="31991279"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -331,8 +331,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="5165351" y="24492858"/>
-                <a:ext cx="336096" cy="326571"/>
+                <a:off x="5157570" y="31560541"/>
+                <a:ext cx="336096" cy="326569"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -374,9 +374,9 @@
             <xdr:grpSpPr>
               <a:xfrm>
                 <a:off x="4140994" y="508907"/>
-                <a:ext cx="7928542" cy="26066169"/>
+                <a:ext cx="7928542" cy="31991279"/>
                 <a:chOff x="4140994" y="508907"/>
-                <a:chExt cx="7928542" cy="26066169"/>
+                <a:chExt cx="7928542" cy="31991279"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:cxnSp macro="">
@@ -388,9 +388,9 @@
                 </xdr:cNvCxnSpPr>
               </xdr:nvCxnSpPr>
               <xdr:spPr>
-                <a:xfrm rot="16200000" flipH="1">
-                  <a:off x="7314384" y="2274672"/>
-                  <a:ext cx="357119" cy="0"/>
+                <a:xfrm rot="5400000">
+                  <a:off x="7371372" y="2330063"/>
+                  <a:ext cx="394048" cy="0"/>
                 </a:xfrm>
                 <a:prstGeom prst="straightConnector1">
                   <a:avLst/>
@@ -423,9 +423,9 @@
                 </xdr:cNvCxnSpPr>
               </xdr:nvCxnSpPr>
               <xdr:spPr>
-                <a:xfrm rot="5400000">
-                  <a:off x="7314384" y="1158274"/>
-                  <a:ext cx="357120" cy="0"/>
+                <a:xfrm rot="16200000" flipH="1">
+                  <a:off x="7371372" y="1176736"/>
+                  <a:ext cx="394048" cy="0"/>
                 </a:xfrm>
                 <a:prstGeom prst="straightConnector1">
                   <a:avLst/>
@@ -459,8 +459,8 @@
               </xdr:nvCxnSpPr>
               <xdr:spPr>
                 <a:xfrm rot="5400000">
-                  <a:off x="7364823" y="4676105"/>
-                  <a:ext cx="256241" cy="0"/>
+                  <a:off x="7371372" y="4951525"/>
+                  <a:ext cx="394048" cy="713"/>
                 </a:xfrm>
                 <a:prstGeom prst="straightConnector1">
                   <a:avLst/>
@@ -493,9 +493,9 @@
                 </xdr:cNvCxnSpPr>
               </xdr:nvCxnSpPr>
               <xdr:spPr>
-                <a:xfrm rot="5400000">
-                  <a:off x="7314384" y="3448503"/>
-                  <a:ext cx="357120" cy="670"/>
+                <a:xfrm rot="16200000" flipH="1">
+                  <a:off x="7371372" y="3636023"/>
+                  <a:ext cx="394048" cy="0"/>
                 </a:xfrm>
                 <a:prstGeom prst="straightConnector1">
                   <a:avLst/>
@@ -527,9 +527,9 @@
               <xdr:grpSpPr>
                 <a:xfrm>
                   <a:off x="4140994" y="508907"/>
-                  <a:ext cx="7928542" cy="26066169"/>
+                  <a:ext cx="7928542" cy="31991279"/>
                   <a:chOff x="4140994" y="508907"/>
-                  <a:chExt cx="7928542" cy="26066169"/>
+                  <a:chExt cx="7928542" cy="31991279"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:grpSp>
@@ -540,9 +540,9 @@
                 <xdr:grpSpPr>
                   <a:xfrm>
                     <a:off x="4140994" y="508907"/>
-                    <a:ext cx="7928542" cy="23983950"/>
+                    <a:ext cx="7928542" cy="30964448"/>
                     <a:chOff x="4140994" y="508907"/>
-                    <a:chExt cx="7928542" cy="23983950"/>
+                    <a:chExt cx="7928542" cy="30964448"/>
                   </a:xfrm>
                 </xdr:grpSpPr>
                 <xdr:grpSp>
@@ -552,10 +552,10 @@
                   </xdr:nvGrpSpPr>
                   <xdr:grpSpPr>
                     <a:xfrm>
-                      <a:off x="6371034" y="5519193"/>
-                      <a:ext cx="2593904" cy="2283167"/>
-                      <a:chOff x="6371034" y="5152944"/>
-                      <a:chExt cx="2593904" cy="2283167"/>
+                      <a:off x="6446486" y="6003626"/>
+                      <a:ext cx="2464083" cy="2183991"/>
+                      <a:chOff x="6446486" y="5637377"/>
+                      <a:chExt cx="2464083" cy="2183991"/>
                     </a:xfrm>
                   </xdr:grpSpPr>
                   <xdr:sp macro="" textlink="">
@@ -565,8 +565,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="6371034" y="5152944"/>
-                        <a:ext cx="2243818" cy="1886461"/>
+                        <a:off x="6446486" y="5637377"/>
+                        <a:ext cx="2243818" cy="1886458"/>
                       </a:xfrm>
                       <a:prstGeom prst="flowChartDecision">
                         <a:avLst/>
@@ -642,8 +642,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="8628842" y="5802941"/>
-                        <a:ext cx="336096" cy="293233"/>
+                        <a:off x="8691089" y="6188215"/>
+                        <a:ext cx="219480" cy="384605"/>
                       </a:xfrm>
                       <a:prstGeom prst="rect">
                         <a:avLst/>
@@ -684,8 +684,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="7201638" y="7055583"/>
-                        <a:ext cx="290512" cy="380528"/>
+                        <a:off x="7116049" y="7440841"/>
+                        <a:ext cx="290512" cy="380527"/>
                       </a:xfrm>
                       <a:prstGeom prst="rect">
                         <a:avLst/>
@@ -727,10 +727,10 @@
                   </xdr:nvGrpSpPr>
                   <xdr:grpSpPr>
                     <a:xfrm>
-                      <a:off x="6357044" y="508907"/>
-                      <a:ext cx="2271798" cy="4756600"/>
-                      <a:chOff x="6357044" y="508907"/>
-                      <a:chExt cx="2271798" cy="4756600"/>
+                      <a:off x="6432497" y="508907"/>
+                      <a:ext cx="2271798" cy="5100678"/>
+                      <a:chOff x="6432497" y="508907"/>
+                      <a:chExt cx="2271798" cy="5100678"/>
                     </a:xfrm>
                   </xdr:grpSpPr>
                   <xdr:sp macro="" textlink="">
@@ -740,7 +740,7 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="7264343" y="4804225"/>
+                        <a:off x="7339796" y="5148303"/>
                         <a:ext cx="457200" cy="461282"/>
                       </a:xfrm>
                       <a:prstGeom prst="flowChartConnector">
@@ -779,10 +779,10 @@
                     </xdr:nvGrpSpPr>
                     <xdr:grpSpPr>
                       <a:xfrm>
-                        <a:off x="6357044" y="508907"/>
-                        <a:ext cx="2271798" cy="4039078"/>
-                        <a:chOff x="6357044" y="508907"/>
-                        <a:chExt cx="2271798" cy="4039078"/>
+                        <a:off x="6432497" y="508907"/>
+                        <a:ext cx="2271798" cy="4245342"/>
+                        <a:chOff x="6432497" y="508907"/>
+                        <a:chExt cx="2271798" cy="4245342"/>
                       </a:xfrm>
                     </xdr:grpSpPr>
                     <xdr:sp macro="" textlink="">
@@ -792,8 +792,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6722141" y="508907"/>
-                          <a:ext cx="1541604" cy="470807"/>
+                          <a:off x="6797594" y="508907"/>
+                          <a:ext cx="1541604" cy="470806"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -839,8 +839,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6820070" y="3626782"/>
-                          <a:ext cx="1345746" cy="921203"/>
+                          <a:off x="6895523" y="3833048"/>
+                          <a:ext cx="1345746" cy="921201"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -881,8 +881,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6357044" y="1336834"/>
-                          <a:ext cx="2271798" cy="759279"/>
+                          <a:off x="6432497" y="1373761"/>
+                          <a:ext cx="2271798" cy="759277"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -919,12 +919,14 @@
                     <xdr:sp macro="" textlink="">
                       <xdr:nvSpPr>
                         <xdr:cNvPr id="204" name="Flowchart: Process 203"/>
-                        <xdr:cNvSpPr/>
+                        <xdr:cNvSpPr>
+                          <a:spLocks noChangeAspect="1"/>
+                        </xdr:cNvSpPr>
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6881983" y="2453233"/>
-                          <a:ext cx="1221921" cy="816429"/>
+                          <a:off x="6885980" y="2527087"/>
+                          <a:ext cx="1364832" cy="911913"/>
                         </a:xfrm>
                         <a:prstGeom prst="flowChartProcess">
                           <a:avLst/>
@@ -972,10 +974,10 @@
                   </xdr:nvGrpSpPr>
                   <xdr:grpSpPr>
                     <a:xfrm>
-                      <a:off x="6440612" y="7406271"/>
-                      <a:ext cx="2104663" cy="7245592"/>
-                      <a:chOff x="6440612" y="7406271"/>
-                      <a:chExt cx="2104663" cy="7245592"/>
+                      <a:off x="6008364" y="7890693"/>
+                      <a:ext cx="3120064" cy="6761139"/>
+                      <a:chOff x="6008364" y="7890693"/>
+                      <a:chExt cx="3120064" cy="6761139"/>
                     </a:xfrm>
                   </xdr:grpSpPr>
                   <xdr:cxnSp macro="">
@@ -988,8 +990,8 @@
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
                       <a:xfrm rot="5400000">
-                        <a:off x="7185080" y="7713799"/>
-                        <a:ext cx="615726" cy="670"/>
+                        <a:off x="7371372" y="8087360"/>
+                        <a:ext cx="394048" cy="713"/>
                       </a:xfrm>
                       <a:prstGeom prst="straightConnector1">
                         <a:avLst/>
@@ -1020,8 +1022,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="6577183" y="8021380"/>
-                        <a:ext cx="1831521" cy="922564"/>
+                        <a:off x="6652635" y="8284132"/>
+                        <a:ext cx="1831521" cy="922562"/>
                       </a:xfrm>
                       <a:prstGeom prst="ellipse">
                         <a:avLst/>
@@ -1065,8 +1067,8 @@
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
                       <a:xfrm rot="5400000">
-                        <a:off x="7331947" y="9105222"/>
-                        <a:ext cx="321992" cy="670"/>
+                        <a:off x="7371372" y="9403971"/>
+                        <a:ext cx="394048" cy="713"/>
                       </a:xfrm>
                       <a:prstGeom prst="straightConnector1">
                         <a:avLst/>
@@ -1097,8 +1099,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="6958182" y="9265936"/>
-                        <a:ext cx="1069522" cy="851292"/>
+                        <a:off x="6930663" y="9600743"/>
+                        <a:ext cx="1275465" cy="851290"/>
                       </a:xfrm>
                       <a:prstGeom prst="flowChartProcess">
                         <a:avLst/>
@@ -1131,7 +1133,7 @@
                         </a:r>
                         <a:r>
                           <a:rPr lang="en-US" sz="2800" baseline="0"/>
-                          <a:t> Speed from Potentiometer</a:t>
+                          <a:t> Speed from Pot.</a:t>
                         </a:r>
                         <a:endParaRPr lang="en-US" sz="2800"/>
                       </a:p>
@@ -1144,8 +1146,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="6881983" y="10622886"/>
-                        <a:ext cx="1221921" cy="816428"/>
+                        <a:off x="6008364" y="10846081"/>
+                        <a:ext cx="3120064" cy="816426"/>
                       </a:xfrm>
                       <a:prstGeom prst="flowChartProcess">
                         <a:avLst/>
@@ -1191,8 +1193,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="6881983" y="11944972"/>
-                        <a:ext cx="1221921" cy="781376"/>
+                        <a:off x="6840900" y="12056556"/>
+                        <a:ext cx="1454992" cy="781374"/>
                       </a:xfrm>
                       <a:prstGeom prst="flowChartProcess">
                         <a:avLst/>
@@ -1225,7 +1227,7 @@
                         </a:r>
                         <a:r>
                           <a:rPr lang="en-US" sz="2800" baseline="0"/>
-                          <a:t> LED's in the proper sequence and proper speed</a:t>
+                          <a:t> LED's in set order and set speed</a:t>
                         </a:r>
                         <a:endParaRPr lang="en-US" sz="2800"/>
                       </a:p>
@@ -1241,8 +1243,8 @@
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
                       <a:xfrm rot="16200000" flipH="1">
-                        <a:off x="7240114" y="10370057"/>
-                        <a:ext cx="505658" cy="0"/>
+                        <a:off x="7371372" y="10649056"/>
+                        <a:ext cx="394048" cy="0"/>
                       </a:xfrm>
                       <a:prstGeom prst="straightConnector1">
                         <a:avLst/>
@@ -1273,8 +1275,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="6440612" y="13232003"/>
-                        <a:ext cx="2104663" cy="1419860"/>
+                        <a:off x="6516064" y="13231975"/>
+                        <a:ext cx="2104663" cy="1419857"/>
                       </a:xfrm>
                       <a:prstGeom prst="flowChartProcess">
                         <a:avLst/>
@@ -1333,9 +1335,9 @@
                       </xdr:cNvCxnSpPr>
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
-                      <a:xfrm rot="5400000">
-                        <a:off x="7240116" y="12979175"/>
-                        <a:ext cx="505655" cy="0"/>
+                      <a:xfrm rot="16200000" flipH="1">
+                        <a:off x="7371373" y="13034952"/>
+                        <a:ext cx="394045" cy="0"/>
                       </a:xfrm>
                       <a:prstGeom prst="straightConnector1">
                         <a:avLst/>
@@ -1370,8 +1372,8 @@
                   </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm rot="10800000" flipV="1">
-                      <a:off x="5502241" y="13941932"/>
-                      <a:ext cx="938371" cy="590496"/>
+                      <a:off x="5502241" y="13941903"/>
+                      <a:ext cx="1013824" cy="1738757"/>
                     </a:xfrm>
                     <a:prstGeom prst="straightConnector1">
                       <a:avLst/>
@@ -1402,10 +1404,10 @@
                   </xdr:nvGrpSpPr>
                   <xdr:grpSpPr>
                     <a:xfrm>
-                      <a:off x="4140994" y="14532429"/>
-                      <a:ext cx="7928542" cy="9960428"/>
-                      <a:chOff x="4140994" y="14532429"/>
-                      <a:chExt cx="7928542" cy="9960428"/>
+                      <a:off x="4140994" y="15680661"/>
+                      <a:ext cx="7928542" cy="15792694"/>
+                      <a:chOff x="4140994" y="15680661"/>
+                      <a:chExt cx="7928542" cy="15792694"/>
                     </a:xfrm>
                   </xdr:grpSpPr>
                   <xdr:cxnSp macro="">
@@ -1418,8 +1420,8 @@
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="6862126" y="15348858"/>
-                        <a:ext cx="2367592" cy="23275"/>
+                        <a:off x="6862126" y="17238024"/>
+                        <a:ext cx="2367592" cy="1218"/>
                       </a:xfrm>
                       <a:prstGeom prst="straightConnector1">
                         <a:avLst/>
@@ -1450,8 +1452,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="9229718" y="14905550"/>
-                        <a:ext cx="2839818" cy="933165"/>
+                        <a:off x="9229718" y="16635156"/>
+                        <a:ext cx="2839818" cy="1205737"/>
                       </a:xfrm>
                       <a:prstGeom prst="rect">
                         <a:avLst/>
@@ -1502,8 +1504,8 @@
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
                       <a:xfrm flipV="1">
-                        <a:off x="6863486" y="15838715"/>
-                        <a:ext cx="3786141" cy="1592036"/>
+                        <a:off x="6863486" y="17840892"/>
+                        <a:ext cx="3786141" cy="2781438"/>
                       </a:xfrm>
                       <a:prstGeom prst="bentConnector2">
                         <a:avLst/>
@@ -1537,8 +1539,8 @@
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
                       <a:xfrm flipV="1">
-                        <a:off x="6862126" y="15838715"/>
-                        <a:ext cx="3787501" cy="3673928"/>
+                        <a:off x="6862126" y="17840892"/>
+                        <a:ext cx="3787501" cy="5890348"/>
                       </a:xfrm>
                       <a:prstGeom prst="bentConnector2">
                         <a:avLst/>
@@ -1569,8 +1571,8 @@
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
                       <a:xfrm flipV="1">
-                        <a:off x="6862126" y="15838715"/>
-                        <a:ext cx="3787501" cy="5755821"/>
+                        <a:off x="6862126" y="17840892"/>
+                        <a:ext cx="3787501" cy="8940665"/>
                       </a:xfrm>
                       <a:prstGeom prst="bentConnector2">
                         <a:avLst/>
@@ -1601,8 +1603,8 @@
                     </xdr:nvCxnSpPr>
                     <xdr:spPr>
                       <a:xfrm flipV="1">
-                        <a:off x="6863486" y="15838715"/>
-                        <a:ext cx="3786141" cy="7837713"/>
+                        <a:off x="6863486" y="17840892"/>
+                        <a:ext cx="3786141" cy="12073855"/>
                       </a:xfrm>
                       <a:prstGeom prst="bentConnector2">
                         <a:avLst/>
@@ -1630,10 +1632,10 @@
                     </xdr:nvGrpSpPr>
                     <xdr:grpSpPr>
                       <a:xfrm>
-                        <a:off x="4140994" y="14532429"/>
-                        <a:ext cx="3084145" cy="9960428"/>
-                        <a:chOff x="4140994" y="14532429"/>
-                        <a:chExt cx="3084145" cy="9960428"/>
+                        <a:off x="4140994" y="15680661"/>
+                        <a:ext cx="3068584" cy="15792694"/>
+                        <a:chOff x="4140994" y="15680661"/>
+                        <a:chExt cx="3068584" cy="15792694"/>
                       </a:xfrm>
                     </xdr:grpSpPr>
                     <xdr:cxnSp macro="">
@@ -1646,8 +1648,8 @@
                       </xdr:nvCxnSpPr>
                       <xdr:spPr>
                         <a:xfrm rot="5400000">
-                          <a:off x="5277723" y="16389804"/>
-                          <a:ext cx="449036" cy="1"/>
+                          <a:off x="5326637" y="18970990"/>
+                          <a:ext cx="351207" cy="0"/>
                         </a:xfrm>
                         <a:prstGeom prst="straightConnector1">
                           <a:avLst/>
@@ -1681,8 +1683,8 @@
                       </xdr:nvCxnSpPr>
                       <xdr:spPr>
                         <a:xfrm rot="5400000">
-                          <a:off x="5277724" y="22635482"/>
-                          <a:ext cx="449035" cy="1"/>
+                          <a:off x="5423521" y="28277420"/>
+                          <a:ext cx="157440" cy="0"/>
                         </a:xfrm>
                         <a:prstGeom prst="straightConnector1">
                           <a:avLst/>
@@ -1716,8 +1718,8 @@
                       </xdr:nvCxnSpPr>
                       <xdr:spPr>
                         <a:xfrm rot="16200000" flipH="1">
-                          <a:off x="5277722" y="18471696"/>
-                          <a:ext cx="449036" cy="1"/>
+                          <a:off x="5423521" y="22176784"/>
+                          <a:ext cx="157439" cy="0"/>
                         </a:xfrm>
                         <a:prstGeom prst="straightConnector1">
                           <a:avLst/>
@@ -1751,8 +1753,8 @@
                       </xdr:nvCxnSpPr>
                       <xdr:spPr>
                         <a:xfrm rot="5400000">
-                          <a:off x="5277723" y="20553590"/>
-                          <a:ext cx="449036" cy="1588"/>
+                          <a:off x="5423521" y="25285948"/>
+                          <a:ext cx="157440" cy="713"/>
                         </a:xfrm>
                         <a:prstGeom prst="straightConnector1">
                           <a:avLst/>
@@ -1783,8 +1785,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6889043" y="23349857"/>
-                          <a:ext cx="333375" cy="326572"/>
+                          <a:off x="6850139" y="29589775"/>
+                          <a:ext cx="333375" cy="326570"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -1825,8 +1827,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6889043" y="21267965"/>
-                          <a:ext cx="336096" cy="326572"/>
+                          <a:off x="6873482" y="26465195"/>
+                          <a:ext cx="336096" cy="326570"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -1867,8 +1869,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="4142355" y="14532429"/>
-                          <a:ext cx="2719771" cy="1632857"/>
+                          <a:off x="4142355" y="15680661"/>
+                          <a:ext cx="2719771" cy="3114726"/>
                         </a:xfrm>
                         <a:prstGeom prst="diamond">
                           <a:avLst/>
@@ -1910,8 +1912,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="4140994" y="22860000"/>
-                          <a:ext cx="2722492" cy="1632857"/>
+                          <a:off x="4140994" y="28356140"/>
+                          <a:ext cx="2722492" cy="3117215"/>
                         </a:xfrm>
                         <a:prstGeom prst="diamond">
                           <a:avLst/>
@@ -1953,8 +1955,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="4142355" y="20778108"/>
-                          <a:ext cx="2719771" cy="1632857"/>
+                          <a:off x="4142355" y="25364416"/>
+                          <a:ext cx="2719771" cy="2834285"/>
                         </a:xfrm>
                         <a:prstGeom prst="diamond">
                           <a:avLst/>
@@ -1996,8 +1998,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="4142355" y="18696215"/>
-                          <a:ext cx="2719771" cy="1632857"/>
+                          <a:off x="4142355" y="22255505"/>
+                          <a:ext cx="2719771" cy="2951471"/>
                         </a:xfrm>
                         <a:prstGeom prst="diamond">
                           <a:avLst/>
@@ -2039,8 +2041,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="4140994" y="16614322"/>
-                          <a:ext cx="2722492" cy="1632857"/>
+                          <a:off x="4140994" y="19146595"/>
+                          <a:ext cx="2722492" cy="2951471"/>
                         </a:xfrm>
                         <a:prstGeom prst="diamond">
                           <a:avLst/>
@@ -2082,8 +2084,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6846775" y="15022286"/>
-                          <a:ext cx="336096" cy="326571"/>
+                          <a:off x="6854555" y="16895494"/>
+                          <a:ext cx="336096" cy="326570"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -2124,8 +2126,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6877476" y="17104179"/>
-                          <a:ext cx="333375" cy="326572"/>
+                          <a:off x="6861915" y="20300517"/>
+                          <a:ext cx="333375" cy="326570"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -2166,8 +2168,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="6849496" y="19186073"/>
-                          <a:ext cx="333375" cy="326571"/>
+                          <a:off x="6849496" y="23396142"/>
+                          <a:ext cx="333375" cy="326569"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -2208,8 +2210,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="5166939" y="16165286"/>
-                          <a:ext cx="336096" cy="326571"/>
+                          <a:off x="4964641" y="18784065"/>
+                          <a:ext cx="336096" cy="326570"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -2250,8 +2252,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="5165351" y="18247178"/>
-                          <a:ext cx="336096" cy="326571"/>
+                          <a:off x="4955274" y="21932833"/>
+                          <a:ext cx="336096" cy="326569"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -2292,8 +2294,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="5165351" y="20329866"/>
-                          <a:ext cx="336096" cy="326571"/>
+                          <a:off x="4994175" y="25108170"/>
+                          <a:ext cx="336096" cy="326569"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -2334,8 +2336,8 @@
                       </xdr:nvSpPr>
                       <xdr:spPr>
                         <a:xfrm>
-                          <a:off x="5166939" y="22410965"/>
-                          <a:ext cx="336096" cy="326571"/>
+                          <a:off x="4964640" y="28046753"/>
+                          <a:ext cx="336096" cy="326569"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -2381,12 +2383,12 @@
                   </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm flipH="1" flipV="1">
-                      <a:off x="7721543" y="5034866"/>
-                      <a:ext cx="893309" cy="1427558"/>
+                      <a:off x="7796996" y="5378938"/>
+                      <a:ext cx="893309" cy="1567917"/>
                     </a:xfrm>
                     <a:prstGeom prst="bentConnector3">
                       <a:avLst>
-                        <a:gd name="adj1" fmla="val -80791"/>
+                        <a:gd name="adj1" fmla="val -74429"/>
                       </a:avLst>
                     </a:prstGeom>
                     <a:ln>
@@ -2418,8 +2420,8 @@
                   </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm rot="16200000" flipV="1">
-                      <a:off x="4250243" y="8506166"/>
-                      <a:ext cx="9870684" cy="2928084"/>
+                      <a:off x="3595203" y="9580731"/>
+                      <a:ext cx="11256217" cy="2852631"/>
                     </a:xfrm>
                     <a:prstGeom prst="bentConnector2">
                       <a:avLst/>
@@ -2451,8 +2453,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="7442703" y="25472571"/>
-                    <a:ext cx="1325123" cy="1102505"/>
+                    <a:off x="7442703" y="31397687"/>
+                    <a:ext cx="1325123" cy="1102499"/>
                   </a:xfrm>
                   <a:prstGeom prst="flowChartProcess">
                     <a:avLst/>
@@ -2498,8 +2500,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="10232570" y="25717499"/>
-                    <a:ext cx="1836965" cy="612648"/>
+                    <a:off x="10232570" y="31642614"/>
+                    <a:ext cx="1836965" cy="612644"/>
                   </a:xfrm>
                   <a:prstGeom prst="flowChartProcess">
                     <a:avLst/>
@@ -2548,7 +2550,7 @@
                 </xdr:nvCxnSpPr>
                 <xdr:spPr>
                   <a:xfrm flipV="1">
-                    <a:off x="8767826" y="26023823"/>
+                    <a:off x="8767826" y="31948936"/>
                     <a:ext cx="1464744" cy="1"/>
                   </a:xfrm>
                   <a:prstGeom prst="straightConnector1">
@@ -2583,12 +2585,12 @@
                 </xdr:nvCxnSpPr>
                 <xdr:spPr>
                   <a:xfrm flipH="1" flipV="1">
-                    <a:off x="7721543" y="5034866"/>
-                    <a:ext cx="4347992" cy="20988957"/>
+                    <a:off x="7796996" y="5378938"/>
+                    <a:ext cx="4272539" cy="26569998"/>
                   </a:xfrm>
                   <a:prstGeom prst="bentConnector3">
                     <a:avLst>
-                      <a:gd name="adj1" fmla="val -2217"/>
+                      <a:gd name="adj1" fmla="val -2404"/>
                     </a:avLst>
                   </a:prstGeom>
                   <a:ln>
@@ -2620,8 +2622,8 @@
                 </xdr:nvCxnSpPr>
                 <xdr:spPr>
                   <a:xfrm rot="16200000" flipH="1">
-                    <a:off x="5706988" y="24288108"/>
-                    <a:ext cx="1530967" cy="1940463"/>
+                    <a:off x="6234681" y="30740915"/>
+                    <a:ext cx="475581" cy="1940463"/>
                   </a:xfrm>
                   <a:prstGeom prst="bentConnector2">
                     <a:avLst/>
@@ -2945,8 +2947,8 @@
   </sheetPr>
   <dimension ref="F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A174" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AS30" sqref="AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
